--- a/DataExcel/Orders.xlsx
+++ b/DataExcel/Orders.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chandra-Kautilya\Katalon Studio\AB_Framework\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,16 @@
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Limit_Market">Data!$A$9:$A$10</definedName>
+    <definedName name="Normal_Stoploss">Data!$A$6:$A$7</definedName>
+    <definedName name="OrderType">Data!$A$3:$A$4</definedName>
+    <definedName name="Pending_Completed">Data!$A$12:$A$13</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>OrderType_Sell_Buy</t>
   </si>
@@ -44,9 +52,6 @@
     <t>sell</t>
   </si>
   <si>
-    <t>Yes Bank</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -65,22 +70,49 @@
     <t>buy</t>
   </si>
   <si>
-    <t>SBI Life</t>
-  </si>
-  <si>
     <t>SL</t>
   </si>
   <si>
     <t>ProductType_Del_Intra</t>
   </si>
   <si>
-    <t>PriceType_L_SL</t>
-  </si>
-  <si>
-    <t>RCOM</t>
-  </si>
-  <si>
     <t>Trigger_Price</t>
+  </si>
+  <si>
+    <t>Status_P_C</t>
+  </si>
+  <si>
+    <t>SquareOff_L_MKT</t>
+  </si>
+  <si>
+    <t>SquareOff_Quantity</t>
+  </si>
+  <si>
+    <t>SquareOff_Price</t>
+  </si>
+  <si>
+    <t>SquareOff_Status_C</t>
+  </si>
+  <si>
+    <t>PriceType_L_MKT</t>
+  </si>
+  <si>
+    <t>LIMIT</t>
+  </si>
+  <si>
+    <t>MKT</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>ESCORTS</t>
+  </si>
+  <si>
+    <t>HDFC</t>
   </si>
 </sst>
 </file>
@@ -124,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -175,15 +207,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,10 +520,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,9 +539,14 @@
     <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,27 +560,42 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -527,24 +605,35 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -556,49 +645,107 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>11</v>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+      <formula1>OrderType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+      <formula1>Normal_Stoploss</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3 K2:K3">
+      <formula1>Limit_Market</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3 N2:N3">
+      <formula1>Pending_Completed</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A3:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>